--- a/data/metadata/second round plasma samples.xlsx
+++ b/data/metadata/second round plasma samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C9066-9C71-45B2-A983-E1662DF93111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD5407F-A729-4C50-AC7D-788FE6FE608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{CFDF8803-75F4-4A0C-B60B-4AD8B8BE00CA}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>6/23 sample</t>
   </si>
   <si>
-    <t>rat num</t>
-  </si>
-  <si>
     <t>extra female</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Ben note</t>
+  </si>
+  <si>
+    <t>animal</t>
   </si>
 </sst>
 </file>
@@ -534,12 +534,12 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="4.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
     <col min="5" max="5" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -569,10 +569,10 @@
         <v>24</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -580,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="str">
-        <f>LEFT(A2, 4)</f>
+        <f t="shared" ref="B2:B33" si="0">LEFT(A2, 4)</f>
         <v>1061</v>
       </c>
       <c r="C2">
@@ -607,7 +607,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="str">
-        <f>LEFT(A3, 4)</f>
+        <f t="shared" si="0"/>
         <v>1061</v>
       </c>
       <c r="C3">
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="str">
-        <f>LEFT(A4, 4)</f>
+        <f t="shared" si="0"/>
         <v>1061</v>
       </c>
       <c r="C4">
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="str">
-        <f>LEFT(A5, 4)</f>
+        <f t="shared" si="0"/>
         <v>1075</v>
       </c>
       <c r="C5">
@@ -688,7 +688,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="str">
-        <f>LEFT(A6, 4)</f>
+        <f t="shared" si="0"/>
         <v>1075</v>
       </c>
       <c r="C6">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="str">
-        <f>LEFT(A7, 4)</f>
+        <f t="shared" si="0"/>
         <v>1075</v>
       </c>
       <c r="C7">
@@ -742,7 +742,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="str">
-        <f>LEFT(A8, 4)</f>
+        <f t="shared" si="0"/>
         <v>1081</v>
       </c>
       <c r="C8">
@@ -769,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="str">
-        <f>LEFT(A9, 4)</f>
+        <f t="shared" si="0"/>
         <v>1081</v>
       </c>
       <c r="C9">
@@ -796,7 +796,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="str">
-        <f>LEFT(A10, 4)</f>
+        <f t="shared" si="0"/>
         <v>1081</v>
       </c>
       <c r="C10">
@@ -823,7 +823,7 @@
         <v>29</v>
       </c>
       <c r="B11" t="str">
-        <f>LEFT(A11, 4)</f>
+        <f t="shared" si="0"/>
         <v>1094</v>
       </c>
       <c r="C11">
@@ -850,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="str">
-        <f>LEFT(A12, 4)</f>
+        <f t="shared" si="0"/>
         <v>1094</v>
       </c>
       <c r="C12">
@@ -877,7 +877,7 @@
         <v>29</v>
       </c>
       <c r="B13" t="str">
-        <f>LEFT(A13, 4)</f>
+        <f t="shared" si="0"/>
         <v>1094</v>
       </c>
       <c r="C13">
@@ -904,7 +904,7 @@
         <v>30</v>
       </c>
       <c r="B14" t="str">
-        <f>LEFT(A14, 4)</f>
+        <f t="shared" si="0"/>
         <v>1095</v>
       </c>
       <c r="C14">
@@ -931,7 +931,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="str">
-        <f>LEFT(A15, 4)</f>
+        <f t="shared" si="0"/>
         <v>1095</v>
       </c>
       <c r="C15">
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="str">
-        <f>LEFT(A16, 4)</f>
+        <f t="shared" si="0"/>
         <v>1095</v>
       </c>
       <c r="C16">
@@ -985,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="str">
-        <f>LEFT(A17, 4)</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
       <c r="C17">
@@ -1012,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="B18" t="str">
-        <f>LEFT(A18, 4)</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
       <c r="C18">
@@ -1039,7 +1039,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="str">
-        <f>LEFT(A19, 4)</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
       <c r="C19">
@@ -1066,7 +1066,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="str">
-        <f>LEFT(A20, 4)</f>
+        <f t="shared" si="0"/>
         <v>1727</v>
       </c>
       <c r="C20">
@@ -1093,7 +1093,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="str">
-        <f>LEFT(A21, 4)</f>
+        <f t="shared" si="0"/>
         <v>1727</v>
       </c>
       <c r="C21">
@@ -1120,7 +1120,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="str">
-        <f>LEFT(A22, 4)</f>
+        <f t="shared" si="0"/>
         <v>1727</v>
       </c>
       <c r="C22">
@@ -1147,7 +1147,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="str">
-        <f>LEFT(A23, 4)</f>
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="C23">
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
         <v>33</v>
       </c>
       <c r="B24" t="str">
-        <f>LEFT(A24, 4)</f>
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="C24">
@@ -1204,7 +1204,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="str">
-        <f>LEFT(A25, 4)</f>
+        <f t="shared" si="0"/>
         <v>1728</v>
       </c>
       <c r="C25">
@@ -1234,7 +1234,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="str">
-        <f>LEFT(A26, 4)</f>
+        <f t="shared" si="0"/>
         <v>1731</v>
       </c>
       <c r="C26">
@@ -1261,7 +1261,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="str">
-        <f>LEFT(A27, 4)</f>
+        <f t="shared" si="0"/>
         <v>1731</v>
       </c>
       <c r="C27">
@@ -1288,7 +1288,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="str">
-        <f>LEFT(A28, 4)</f>
+        <f t="shared" si="0"/>
         <v>1731</v>
       </c>
       <c r="C28">
@@ -1315,7 +1315,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="str">
-        <f>LEFT(A29, 4)</f>
+        <f t="shared" si="0"/>
         <v>1732</v>
       </c>
       <c r="C29">
@@ -1342,7 +1342,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="str">
-        <f>LEFT(A30, 4)</f>
+        <f t="shared" si="0"/>
         <v>1732</v>
       </c>
       <c r="C30">
@@ -1369,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="str">
-        <f>LEFT(A31, 4)</f>
+        <f t="shared" si="0"/>
         <v>1732</v>
       </c>
       <c r="C31">
@@ -1396,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="str">
-        <f>LEFT(A32, 4)</f>
+        <f t="shared" si="0"/>
         <v>1735</v>
       </c>
       <c r="C32">
@@ -1426,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="str">
-        <f>LEFT(A33, 4)</f>
+        <f t="shared" si="0"/>
         <v>1735</v>
       </c>
       <c r="C33">
@@ -1453,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="str">
-        <f>LEFT(A34, 4)</f>
+        <f t="shared" ref="B34:B65" si="1">LEFT(A34, 4)</f>
         <v>1735</v>
       </c>
       <c r="C34">
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="str">
-        <f>LEFT(A35, 4)</f>
+        <f t="shared" si="1"/>
         <v>1741</v>
       </c>
       <c r="C35">
@@ -1507,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f>LEFT(A36, 4)</f>
+        <f t="shared" si="1"/>
         <v>1741</v>
       </c>
       <c r="C36">
@@ -1534,7 +1534,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="str">
-        <f>LEFT(A37, 4)</f>
+        <f t="shared" si="1"/>
         <v>1741</v>
       </c>
       <c r="C37">
@@ -1564,7 +1564,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="str">
-        <f>LEFT(A38, 4)</f>
+        <f t="shared" si="1"/>
         <v>1742</v>
       </c>
       <c r="C38">
@@ -1586,7 +1586,7 @@
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="str">
-        <f>LEFT(A39, 4)</f>
+        <f t="shared" si="1"/>
         <v>1742</v>
       </c>
       <c r="C39">
@@ -1616,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="str">
-        <f>LEFT(A40, 4)</f>
+        <f t="shared" si="1"/>
         <v>1742</v>
       </c>
       <c r="C40">
@@ -1646,7 +1646,7 @@
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B41" t="str">
-        <f>LEFT(A41, 4)</f>
+        <f t="shared" si="1"/>
         <v>1743</v>
       </c>
       <c r="C41">
@@ -1676,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -1684,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="str">
-        <f>LEFT(A42, 4)</f>
+        <f t="shared" si="1"/>
         <v>1743</v>
       </c>
       <c r="C42">
@@ -1706,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -1714,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="str">
-        <f>LEFT(A43, 4)</f>
+        <f t="shared" si="1"/>
         <v>1743</v>
       </c>
       <c r="C43">
@@ -1736,7 +1736,7 @@
         <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -1744,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="str">
-        <f>LEFT(A44, 4)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="C44">
@@ -1771,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="str">
-        <f>LEFT(A45, 4)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="C45">
@@ -1798,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="str">
-        <f>LEFT(A46, 4)</f>
+        <f t="shared" si="1"/>
         <v>1746</v>
       </c>
       <c r="C46">
@@ -1825,7 +1825,7 @@
         <v>37</v>
       </c>
       <c r="B47" t="str">
-        <f>LEFT(A47, 4)</f>
+        <f t="shared" si="1"/>
         <v>1748</v>
       </c>
       <c r="C47">
@@ -1852,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="B48" t="str">
-        <f>LEFT(A48, 4)</f>
+        <f t="shared" si="1"/>
         <v>1748</v>
       </c>
       <c r="C48">
@@ -1879,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="B49" t="str">
-        <f>LEFT(A49, 4)</f>
+        <f t="shared" si="1"/>
         <v>1748</v>
       </c>
       <c r="C49">
@@ -1906,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="str">
-        <f>LEFT(A50, 4)</f>
+        <f t="shared" si="1"/>
         <v>1754</v>
       </c>
       <c r="C50">
@@ -1928,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -1936,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="str">
-        <f>LEFT(A51, 4)</f>
+        <f t="shared" si="1"/>
         <v>1754</v>
       </c>
       <c r="C51">
@@ -1958,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -1966,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="str">
-        <f>LEFT(A52, 4)</f>
+        <f t="shared" si="1"/>
         <v>1754</v>
       </c>
       <c r="C52">
@@ -1988,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="str">
-        <f>LEFT(A53, 4)</f>
+        <f t="shared" si="1"/>
         <v>1788</v>
       </c>
       <c r="C53">
@@ -2018,7 +2018,7 @@
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -2026,7 +2026,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="str">
-        <f>LEFT(A54, 4)</f>
+        <f t="shared" si="1"/>
         <v>1789</v>
       </c>
       <c r="C54">
@@ -2048,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -2056,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="str">
-        <f>LEFT(A55, 4)</f>
+        <f t="shared" si="1"/>
         <v>1798</v>
       </c>
       <c r="C55">
@@ -2078,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -2086,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="str">
-        <f>LEFT(A56, 4)</f>
+        <f t="shared" si="1"/>
         <v>1809</v>
       </c>
       <c r="C56">
@@ -2108,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -2116,7 +2116,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="str">
-        <f>LEFT(A57, 4)</f>
+        <f t="shared" si="1"/>
         <v>1810</v>
       </c>
       <c r="C57">
@@ -2138,7 +2138,7 @@
         <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -2146,7 +2146,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="str">
-        <f>LEFT(A58, 4)</f>
+        <f t="shared" si="1"/>
         <v>1811</v>
       </c>
       <c r="C58">
@@ -2168,7 +2168,7 @@
         <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -2176,7 +2176,7 @@
         <v>18</v>
       </c>
       <c r="B59" t="str">
-        <f>LEFT(A59, 4)</f>
+        <f t="shared" si="1"/>
         <v>1812</v>
       </c>
       <c r="C59">
@@ -2198,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="str">
-        <f>LEFT(A60, 4)</f>
+        <f t="shared" si="1"/>
         <v>1857</v>
       </c>
       <c r="C60">
@@ -2228,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
